--- a/Data/QE.xlsx
+++ b/Data/QE.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/pf522_ic_ac_uk/Documents/lab3/Photoelectric/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulflorescu/Desktop/Imperial/Year 3/Photoelectric/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC1048F1419D543E5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CDB1AF7-48C2-4692-BE2E-13AE641A9E39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1E58B-CF55-2146-93A7-376E28F935F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -360,19 +371,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -386,7 +397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,7 +414,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -420,7 +431,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -437,7 +448,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -454,7 +465,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -471,7 +482,7 @@
         <v>131.11000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -488,7 +499,7 @@
         <v>212.80199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
